--- a/week_02_tutorial/data_input/MFA_II_tutorial_II.xlsx
+++ b/week_02_tutorial/data_input/MFA_II_tutorial_II.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="inflow_driven" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="stock_driven" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="sf" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -35,32 +34,13 @@
   <si>
     <t xml:space="preserve">outflow</t>
   </si>
-  <si>
-    <t xml:space="preserve">unknown_sf_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown_sf_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown_sf_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown_sf_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown_sf_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown_sf_6</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -140,20 +120,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,11 +504,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="39171991"/>
-        <c:axId val="86280581"/>
+        <c:axId val="90280585"/>
+        <c:axId val="39919291"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39171991"/>
+        <c:axId val="90280585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +540,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86280581"/>
+        <c:crossAx val="39919291"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86280581"/>
+        <c:axId val="39919291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39171991"/>
+        <c:crossAx val="90280585"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -654,9 +626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>421920</xdr:colOff>
+      <xdr:colOff>421560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -665,7 +637,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3769920" y="729720"/>
-        <a:ext cx="4904640" cy="2713320"/>
+        <a:ext cx="4904280" cy="2712960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -857,7 +829,7 @@
   </sheetPr>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2073,1268 +2045,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F62"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.987300977000232</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0.994936004725305</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.999999999933214</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.999248967365394</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.999999702583373</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.982897515210663</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0.988864510520384</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0.99779486742665</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.999999476841418</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.9940075086232</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.999937889253153</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.977249868051821</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.977249868051821</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>0.991794913912298</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.999965786175368</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.979918866897958</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.999216193313116</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.970105944586768</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.956761867253167</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>0.982356503168959</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.999584704962022</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.953053586857462</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0.996345161900309</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0.961193395271149</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.923436274490165</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>0.9697191499815</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.997789999983279</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.910360731195735</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.989569495873524</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.950227022197786</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.873451045526442</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>0.954101940165101</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.992683982776579</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0.850199716086561</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.977605001375223</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.936918801128759</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.804317030846224</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>0.935723103254415</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.982082890221904</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0.772826290619874</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.959915258798277</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.920990373076301</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0.716145416901324</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>0.914806146798556</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.964232579116381</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.680673058744795</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0.936638293543164</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0.902187606565367</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0.612451518902008</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>0.891581412249475</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0.938259675481601</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0.578273412667676</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.908380182142085</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.880296560601605</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>0.866285629935708</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.904256463728957</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.471745892883077</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0.876005005747137</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0.855159922132657</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0.387548481097992</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>0.839160479375932</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.863108495911429</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0.367879441171442</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0.840470869587096</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0.826692783748475</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0.283854583098676</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>0.8104506309301</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0.816214765413189</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0.273003141658192</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0.802719751355092</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0.79489650065387</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0.195682969153776</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>0.780401529324975</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0.765209478076646</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0.191927301326478</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0.763612578384332</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0.759869348623289</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0.126548954473558</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>0.749257079157301</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0.711740478874898</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.127249212309359</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0.723897167401927</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0.721812814786547</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0.0765637255098348</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>0.717257339869925</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0.657319685423041</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0.0792072492795672</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0.684197890224403</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0.681032594704522</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.0432381327468328</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>0.684636306938577</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.603239080694477</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0.0460795778216575</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0.645018550937765</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0.637933729805541</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0.0227501319481792</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>0.651619835991698</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.550537199995823</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0.0249418137501547</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0.606752522317964</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0.593009769791541</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0.0111354894796164</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>0.618423752196424</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0.0125044847520261</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0.569696236441127</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0.546826341858903</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0.00506399527469533</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>0.585252175997652</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>0.452182407810006</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0.00578048193865351</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0.534063609941258</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0.00213736698008628</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>0.552296086950285</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.407440289588943</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.00245281629310704</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0.453173658141097</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0.000836537361076158</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>0.519732139307769</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>0.365965852954165</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0.000951066690518457</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0.467594951103527</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0.406990230208459</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0.000303383422818031</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>0.487721735909418</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.327822143361563</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0.000335462627902512</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0.436893409244651</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0.36206627019446</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>0.000101889229780755</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>0.456410360596538</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.292974232189</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0.000107153606030544</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0.407905330081928</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0.318967405295479</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>3.16712418331199E-005</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>0.425927163820463</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>0.261316009933456</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>3.08561089032024E-005</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0.380613748509179</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0.278187185213453</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>9.10764857448401E-006</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>0.396384791263378</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>0.232692330136387</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>7.97424356889565E-006</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0.354981449062235</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0.240130651376711</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>2.42205206317953E-006</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>0.367879441171442</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>0.206916734006738</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>1.84117069635166E-006</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0.330956406294118</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0.20510349934613</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>5.9545837476964E-007</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>0.340491132698298</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>0.183785234586811</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>3.78091644045949E-007</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0.308476169108827</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0.173307216251525</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>1.35295690975407E-007</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>0.314284164869602</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>0.16308673757045</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>6.87449533170587E-008</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0.287471354171006</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0.144840077867343</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>2.84034553282577E-008</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>0.289307743790555</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0.144610683748858</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>1.10171060215069E-008</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0.267868397821388</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0.119703439398395</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>5.5082885485197E-009</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>0.265596754402453</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>0.128152456168197</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1.54924267166782E-009</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>0.249591697604238</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>0.0978123934346333</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>9.86587645037695E-010</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>0.243172652413859</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>0.113517029622399</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>1.90300020546223E-010</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>0.232565255974207</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>0.0790096269236995</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1.63174832681093E-010</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>0.222044451939292</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>0.100521267119913</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>2.03267493372917E-011</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>0.216713921311221</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>0.063081198871241</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>2.49173958954928E-011</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>0.202209784817083</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>0.088995196671876</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>1.87952881653908E-012</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>0.201964305667268</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>0.0497729778022139</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>3.51256859672914E-012</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>0.183656008484517</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>0.0787825369467903</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>1.49769801745205E-013</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>0.18824544492513</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>0.0388066047288512</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>4.57053082719335E-013</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>0.166361340594188</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>0.0697406840683859</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>1.02384916223412E-014</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>0.175489255259841</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>0.0298940554132321</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>5.48883983689313E-014</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>0.150296000189294</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>0.061740324518399</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>5.97759394725495E-016</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>0.163630829828033</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>0.0227501319481792</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>6.08308274525467E-015</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
-        <v>0.135423337145367</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>0.0546648002681619</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>2.96713835301881E-017</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>0.152608611279151</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>0.0171024847893373</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>6.22096057427174E-016</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
-        <v>0.121700933660868</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>0.0484093209897582</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>1.2465577078538E-018</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>0.14236446877755</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>0.0126990229997682</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>5.87011601318936E-017</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <v>0.109081663771295</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>0.0428800934176099</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>4.41257837967243E-020</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>0.132843702541361</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>0.00931279014370143</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>5.1104552589617E-018</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
-        <v>0.0975146991077027</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>0.0379934185729409</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>1.31014745922752E-021</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>0.123994994252864</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>0.00674455186401385</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>4.10456525339187E-019</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
-        <v>0.0869464513629758</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>0.0336747926379667</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>3.24816345525E-023</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>0.115770317907208</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>0.00482345299531707</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>3.04118556284617E-020</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
-        <v>0.0773214441169547</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>0.0298580359055968</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>6.69403181575999E-025</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>0.108124822594357</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>0.00340615875995847</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>2.07856021871756E-021</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
-        <v>0.0685831087606269</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>0.0264844656962354</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>1.14159515435546E-026</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>0.101016696227381</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>0.00237490338460939</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>1.31040031600778E-022</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
-        <v>0.0606745012139619</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>0.0235021228140154</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>1.60381089054864E-028</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>0.0944070172326103</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>0.00163484100634684</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>7.61985302416047E-024</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>0.0535389379230101</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>0.0208650565121349</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>1.84779226773188E-030</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>0.0882595996147962</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>0.00111104000694366</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>4.08668884657154E-025</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
-        <v>0.0471205512286512</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>0.0185326696508577</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>1.73801822895269E-032</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>0.0825408355298034</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>0.000745394527006492</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>2.02144305976326E-026</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
-        <v>0.0413647656080595</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>0.0164691234449498</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>1.32861439086736E-034</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>0.0772195384777042</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>0.000493655828383088</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>9.22147315910326E-028</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
-        <v>0.0362186974934242</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>0.0146427996608962</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>8.21730239546471E-037</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>0.0722667894205755</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>0.000322719000594448</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>3.8794755908568E-029</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
-        <v>0.0316314823696249</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>0.0130258171445923</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>4.09343149856762E-039</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>0.0676557874910872</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>0.000208242280561621</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>1.50510154206203E-030</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <v>0.0275545336475572</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>0.0115935989881445</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>1.63499328949865E-041</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>0.063361706456836</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>0.000132629607536678</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>5.38475245828073E-032</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
-        <v>0.0239417384112742</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>0.0103244863658973</v>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>5.21262953337014E-044</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>0.0593615577143048</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>8.33726166342167E-005</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>1.77648211207765E-033</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
-        <v>0.0207495955573312</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>0.00919939499844146</v>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>1.32054265257736E-046</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>0.0556340602833854</v>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>5.17252898356215E-005</v>
-      </c>
-      <c r="F54" s="3" t="n">
-        <v>5.40430535310922E-035</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
-        <v>0.0179373020987709</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>0.00820151027424132</v>
-      </c>
-      <c r="C55" s="3" t="n">
-        <v>2.64633573834643E-049</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>0.052159518040835</v>
-      </c>
-      <c r="E55" s="3" t="n">
-        <v>3.16712418331199E-005</v>
-      </c>
-      <c r="F55" s="3" t="n">
-        <v>1.51597623098195E-036</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
-        <v>0.0154667935112059</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>0.00731601722342133</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>4.17615524962786E-052</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>0.048919704254504</v>
-      </c>
-      <c r="E56" s="3" t="n">
-        <v>1.91380141754653E-005</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>3.9211059391074E-038</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
-        <v>0.0133027439728231</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>0.00652986176169239</v>
-      </c>
-      <c r="C57" s="3" t="n">
-        <v>5.16642063283786E-055</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>0.045897753348099</v>
-      </c>
-      <c r="E57" s="3" t="n">
-        <v>1.14126375356178E-005</v>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>9.35145628703649E-040</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
-        <v>0.0114125322128829</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>0.00583153987866484</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>4.98800145003874E-058</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>0.0430780597293183</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>6.71616003115503E-006</v>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>2.05634410934674E-041</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
-        <v>0.0097661784534192</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>0.00521091171553856</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>3.74135838216335E-061</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>0.0404461834449221</v>
-      </c>
-      <c r="E59" s="3" t="n">
-        <v>3.90023766685018E-006</v>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>4.16917486377247E-043</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
-        <v>0.00833625762489718</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>0.00465903774958105</v>
-      </c>
-      <c r="C60" s="3" t="n">
-        <v>2.170402247988E-064</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>0.037988762378678</v>
-      </c>
-      <c r="E60" s="3" t="n">
-        <v>2.23504323917963E-006</v>
-      </c>
-      <c r="F60" s="3" t="n">
-        <v>7.7935368191928E-045</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
-        <v>0.00709779367614946</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>0.00416803456823027</v>
-      </c>
-      <c r="C61" s="3" t="n">
-        <v>9.69396793042827E-068</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>0.0356934306773258</v>
-      </c>
-      <c r="E61" s="3" t="n">
-        <v>1.26385132669901E-006</v>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>1.34320426730072E-046</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
-        <v>0.00602813939833431</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>0.0037309479684628</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>3.318605311722E-071</v>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>0.0335487430719186</v>
-      </c>
-      <c r="E62" s="3" t="n">
-        <v>7.05199791178732E-007</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>2.13435061778283E-048</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>